--- a/Analysis/Bugbase/output/auto_threshold_values.xlsx
+++ b/Analysis/Bugbase/output/auto_threshold_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifanli/Documents/PhD/Projects/gcmp_analysis_2024/Analysis/Bugbase/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E618166-C046-444B-B9B4-FA5321532AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77158B2A-B8A1-BF42-937E-4202842C93BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{2E4937D3-450C-5A44-A03C-099099B0B7BA}"/>
+    <workbookView xWindow="19200" yWindow="520" windowWidth="19200" windowHeight="17000" xr2:uid="{2E4937D3-450C-5A44-A03C-099099B0B7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
-  <si>
-    <t>mean</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
   <si>
     <t>Contains_Mobile_Elements</t>
   </si>
@@ -63,13 +60,58 @@
   </si>
   <si>
     <t>M00513</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Threshold value</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Below</t>
+  </si>
+  <si>
+    <t>Above</t>
+  </si>
+  <si>
+    <t>Per-trait mean</t>
+  </si>
+  <si>
+    <t>Aerobic</t>
+  </si>
+  <si>
+    <t>Anaerobic</t>
+  </si>
+  <si>
+    <t>Facultatively Anaerobic</t>
+  </si>
+  <si>
+    <t>Gram Negative</t>
+  </si>
+  <si>
+    <t>Gram Positive</t>
+  </si>
+  <si>
+    <t>M00506</t>
+  </si>
+  <si>
+    <t>M00507</t>
+  </si>
+  <si>
+    <t>M00508</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,10 +120,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,7 +154,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,270 +489,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4CFE21-ED1C-7345-A516-0235CADB727F}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D4" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="1">
+        <f>AVERAGE(C5:C7)</f>
+        <v>9.6666666666666679E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="1">
+        <f>AVERAGE(C5:C7)</f>
+        <v>9.6666666666666679E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="1">
+        <f>AVERAGE(C5:C7)</f>
+        <v>9.6666666666666679E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="G1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="1">
+        <f>AVERAGE(C8:C10)</f>
+        <v>0.15333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1">
+        <f>AVERAGE(C8:C10)</f>
+        <v>0.15333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D10" s="1">
+        <f>AVERAGE(C8:C10)</f>
+        <v>0.15333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="1">
+        <f>AVERAGE(C11:C13)</f>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="1">
+        <f>AVERAGE(C11:C13)</f>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.2</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <f>AVERAGE(B1:B12)</f>
-        <v>7.3333333333333334E-2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>AVERAGE(E1:E12)</f>
-        <v>9.6666666666666679E-2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>AVERAGE(H1:H12)</f>
-        <v>0.15333333333333335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D13" s="1">
+        <f>AVERAGE(C11:C13)</f>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="D15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="1">
+        <f>AVERAGE(C14:C16)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="1">
+        <f>AVERAGE(C14:C16)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="1">
+        <f>AVERAGE(C14:C16)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="1">
+        <f>AVERAGE(C17:C19)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="1">
+        <f>AVERAGE(C17:C19)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="1">
+        <f>AVERAGE(C17:C19)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
         <v>0.6</v>
       </c>
-      <c r="E16">
+      <c r="D20" s="1">
+        <f>AVERAGE(C20:C22)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="1">
+        <f>AVERAGE(C20:C22)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="1">
+        <f>AVERAGE(C20:C22)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="1">
+        <f>AVERAGE(C23:C25)</f>
+        <v>0.20033333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="1">
+        <f>AVERAGE(C23:C25)</f>
+        <v>0.20033333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <f>AVERAGE(C23:C25)</f>
+        <v>0.20033333333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <f>AVERAGE(C26:C28)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <f>AVERAGE(C26:C28)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <f>AVERAGE(C26:C28)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <f>AVERAGE(C29:C31)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <f>AVERAGE(C29:C31)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <f>AVERAGE(C29:C31)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <f>AVERAGE(C32:C34)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D33" s="1">
+        <f>AVERAGE(C32:C34)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D34" s="1">
+        <f>AVERAGE(C32:C34)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D35" s="1">
+        <f>AVERAGE(C35:C37)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D36" s="1">
+        <f>AVERAGE(C35:C37)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <f>AVERAGE(C35:C37)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D38" s="1">
+        <f>AVERAGE(C38:C40)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D39" s="1">
+        <f>AVERAGE(C38:C40)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <f>AVERAGE(C38:C40)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1">
         <v>0.9</v>
       </c>
-      <c r="H16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E17">
-        <v>0.7</v>
-      </c>
-      <c r="H17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E18">
+      <c r="D41" s="1">
+        <f>AVERAGE(C41:C43)</f>
         <v>0.9</v>
       </c>
-      <c r="H18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <f>AVERAGE(B15:B26)</f>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f>AVERAGE(E15:E26)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f>AVERAGE(H15:H26)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>0.6</v>
-      </c>
-      <c r="E30">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>0.6</v>
-      </c>
-      <c r="E31">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>0.6</v>
-      </c>
-      <c r="E32">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <f>AVERAGE(B29:B40)</f>
-        <v>0.6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <f>AVERAGE(E29:E40)</f>
-        <v>0.20033333333333334</v>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D42" s="1">
+        <f>AVERAGE(C41:C43)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D43" s="1">
+        <f>AVERAGE(C41:C43)</f>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
